--- a/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_rows.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dna-methylation\dna-methylation\scripts\develop\betas\plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\dna-methylation\dna-methylation\scripts\develop\illumina450k\residuals\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2F9B7F-01B8-4988-B229-CBD00AA5C8A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16689" yWindow="8863" windowWidth="16225" windowHeight="9051" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16695" yWindow="8865" windowWidth="16230" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="i" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>begins</t>
   </si>
@@ -34,49 +33,73 @@
     <t>aux</t>
   </si>
   <si>
-    <t>cg13382567</t>
-  </si>
-  <si>
-    <t>cg25887789</t>
-  </si>
-  <si>
-    <t>cg01302668</t>
-  </si>
-  <si>
-    <t>cg00134667</t>
-  </si>
-  <si>
-    <t>cg25364822</t>
-  </si>
-  <si>
-    <t>cg18557131</t>
-  </si>
-  <si>
-    <t>SRRM4</t>
-  </si>
-  <si>
-    <t>PDZRN4</t>
-  </si>
-  <si>
-    <t>FAM162B</t>
-  </si>
-  <si>
-    <t>CACNA1H</t>
-  </si>
-  <si>
-    <t>FNDC5</t>
-  </si>
-  <si>
-    <t>ZIC5</t>
-  </si>
-  <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>reverses</t>
+  </si>
+  <si>
+    <t>cg08369368</t>
+  </si>
+  <si>
+    <t>NSD1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cg03890691</t>
+  </si>
+  <si>
+    <t>DOC2A</t>
+  </si>
+  <si>
+    <t>cg15772157</t>
+  </si>
+  <si>
+    <t>cg24789467</t>
+  </si>
+  <si>
+    <t>SHROOM1</t>
+  </si>
+  <si>
+    <t>cg02716826</t>
+  </si>
+  <si>
+    <t>SUGT1P1;AQP3</t>
+  </si>
+  <si>
+    <t>cg27151362</t>
+  </si>
+  <si>
+    <t>cg26612727</t>
+  </si>
+  <si>
+    <t>ZPBP2</t>
+  </si>
+  <si>
+    <t>cg23960707</t>
+  </si>
+  <si>
+    <t>SFRS1</t>
+  </si>
+  <si>
+    <t>cg26276120</t>
+  </si>
+  <si>
+    <t>TPI1</t>
+  </si>
+  <si>
+    <t>cg18310639</t>
+  </si>
+  <si>
+    <t>CAPN2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,23 +250,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,16 +460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,89 +482,175 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/residuals/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>begins</t>
   </si>
@@ -39,12 +39,6 @@
     <t>reverses</t>
   </si>
   <si>
-    <t>cg08369368</t>
-  </si>
-  <si>
-    <t>NSD1</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -57,43 +51,37 @@
     <t>cg15772157</t>
   </si>
   <si>
-    <t>cg24789467</t>
-  </si>
-  <si>
-    <t>SHROOM1</t>
-  </si>
-  <si>
-    <t>cg02716826</t>
-  </si>
-  <si>
-    <t>SUGT1P1;AQP3</t>
-  </si>
-  <si>
     <t>cg27151362</t>
   </si>
   <si>
-    <t>cg26612727</t>
-  </si>
-  <si>
-    <t>ZPBP2</t>
-  </si>
-  <si>
-    <t>cg23960707</t>
-  </si>
-  <si>
-    <t>SFRS1</t>
-  </si>
-  <si>
-    <t>cg26276120</t>
-  </si>
-  <si>
-    <t>TPI1</t>
-  </si>
-  <si>
-    <t>cg18310639</t>
-  </si>
-  <si>
-    <t>CAPN2</t>
+    <t>cg01620164</t>
+  </si>
+  <si>
+    <t>cg23928726</t>
+  </si>
+  <si>
+    <t>cg23626733</t>
+  </si>
+  <si>
+    <t>cg20823695</t>
+  </si>
+  <si>
+    <t>cg23256579</t>
+  </si>
+  <si>
+    <t>cg23629166</t>
+  </si>
+  <si>
+    <t>cg20136951</t>
+  </si>
+  <si>
+    <t>FIGN</t>
+  </si>
+  <si>
+    <t>PEX10;PEX10</t>
+  </si>
+  <si>
+    <t>PRR4;PRR4</t>
   </si>
 </sst>
 </file>
@@ -464,7 +452,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,10 +476,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -500,15 +488,15 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -517,12 +505,15 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -531,15 +522,12 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -548,15 +536,15 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -565,15 +553,15 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -582,15 +570,15 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -599,15 +587,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -616,15 +604,15 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -633,15 +621,15 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -650,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
